--- a/TestSuite.xlsx
+++ b/TestSuite.xlsx
@@ -24,10 +24,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Micro Service Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Case Suit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +152,10 @@
   </si>
   <si>
     <t>hes-fep.xlsx</t>
+  </si>
+  <si>
+    <t>Microservice Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -608,19 +608,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -628,19 +628,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -648,19 +648,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -688,19 +688,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -728,19 +728,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -748,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -768,19 +768,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -788,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -808,19 +808,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -828,19 +828,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -848,19 +848,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -868,19 +868,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -888,19 +888,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -908,19 +908,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TestSuite.xlsx
+++ b/TestSuite.xlsx
@@ -24,10 +24,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Test Case Suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Case File Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>Microservice Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case Suite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,14 +545,14 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="4.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" style="1" bestFit="1" customWidth="1"/>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -608,19 +608,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -628,19 +628,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -648,19 +648,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -688,19 +688,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -728,19 +728,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -748,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -768,19 +768,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -788,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -808,19 +808,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -828,19 +828,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -848,19 +848,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -868,19 +868,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -888,19 +888,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -908,19 +908,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
         <v>20201023.100000001</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
